--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntng2-Lrrc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.89736468890532</v>
+        <v>9.917322666666665</v>
       </c>
       <c r="H2">
-        <v>9.89736468890532</v>
+        <v>29.751968</v>
       </c>
       <c r="I2">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571083</v>
       </c>
       <c r="J2">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.15339841037358</v>
+        <v>2.158769666666667</v>
       </c>
       <c r="N2">
-        <v>2.15339841037358</v>
+        <v>6.476309000000001</v>
       </c>
       <c r="O2">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="P2">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="Q2">
-        <v>21.31296938797632</v>
+        <v>21.40921534734577</v>
       </c>
       <c r="R2">
-        <v>21.31296938797632</v>
+        <v>192.682938126112</v>
       </c>
       <c r="S2">
-        <v>0.05888631011179074</v>
+        <v>0.05140614560452323</v>
       </c>
       <c r="T2">
-        <v>0.05888631011179074</v>
+        <v>0.05140614560452324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.89736468890532</v>
+        <v>9.917322666666665</v>
       </c>
       <c r="H3">
-        <v>9.89736468890532</v>
+        <v>29.751968</v>
       </c>
       <c r="I3">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571083</v>
       </c>
       <c r="J3">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.80955804883442</v>
+        <v>5.106707</v>
       </c>
       <c r="N3">
-        <v>4.80955804883442</v>
+        <v>15.320121</v>
       </c>
       <c r="O3">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="P3">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="Q3">
-        <v>47.60195000177416</v>
+        <v>50.64486108312533</v>
       </c>
       <c r="R3">
-        <v>47.60195000177416</v>
+        <v>455.803749748128</v>
       </c>
       <c r="S3">
-        <v>0.131521006702698</v>
+        <v>0.1216045081858994</v>
       </c>
       <c r="T3">
-        <v>0.131521006702698</v>
+        <v>0.1216045081858994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.89736468890532</v>
+        <v>9.917322666666665</v>
       </c>
       <c r="H4">
-        <v>9.89736468890532</v>
+        <v>29.751968</v>
       </c>
       <c r="I4">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571083</v>
       </c>
       <c r="J4">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.15551498818491</v>
+        <v>5.336732333333333</v>
       </c>
       <c r="N4">
-        <v>5.15551498818491</v>
+        <v>16.010197</v>
       </c>
       <c r="O4">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444689</v>
       </c>
       <c r="P4">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444688</v>
       </c>
       <c r="Q4">
-        <v>51.02601199718346</v>
+        <v>52.92609653529954</v>
       </c>
       <c r="R4">
-        <v>51.02601199718346</v>
+        <v>476.3348688176959</v>
       </c>
       <c r="S4">
-        <v>0.1409814611721451</v>
+        <v>0.1270820336304369</v>
       </c>
       <c r="T4">
-        <v>0.1409814611721451</v>
+        <v>0.1270820336304369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.89736468890532</v>
+        <v>9.917322666666665</v>
       </c>
       <c r="H5">
-        <v>9.89736468890532</v>
+        <v>29.751968</v>
       </c>
       <c r="I5">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571083</v>
       </c>
       <c r="J5">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.87875142434621</v>
+        <v>4.997999</v>
       </c>
       <c r="N5">
-        <v>4.87875142434621</v>
+        <v>14.993997</v>
       </c>
       <c r="O5">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="P5">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="Q5">
-        <v>48.28678207327071</v>
+        <v>49.56676877067733</v>
       </c>
       <c r="R5">
-        <v>48.28678207327071</v>
+        <v>446.100918936096</v>
       </c>
       <c r="S5">
-        <v>0.1334131519501545</v>
+        <v>0.1190158766321657</v>
       </c>
       <c r="T5">
-        <v>0.1334131519501545</v>
+        <v>0.1190158766321657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.89736468890532</v>
+        <v>9.917322666666665</v>
       </c>
       <c r="H6">
-        <v>9.89736468890532</v>
+        <v>29.751968</v>
       </c>
       <c r="I6">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571083</v>
       </c>
       <c r="J6">
-        <v>0.5270057594937251</v>
+        <v>0.4771592481571084</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.27471593028608</v>
+        <v>2.437803</v>
       </c>
       <c r="N6">
-        <v>2.27471593028608</v>
+        <v>7.313409</v>
       </c>
       <c r="O6">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="P6">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="Q6">
-        <v>22.51369312570387</v>
+        <v>24.176478948768</v>
       </c>
       <c r="R6">
-        <v>22.51369312570387</v>
+        <v>217.588310538912</v>
       </c>
       <c r="S6">
-        <v>0.06220382955693673</v>
+        <v>0.05805068410408316</v>
       </c>
       <c r="T6">
-        <v>0.06220382955693673</v>
+        <v>0.05805068410408315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.27187372963153</v>
+        <v>3.310927333333333</v>
       </c>
       <c r="H7">
-        <v>3.27187372963153</v>
+        <v>9.932782</v>
       </c>
       <c r="I7">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="J7">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.15339841037358</v>
+        <v>2.158769666666667</v>
       </c>
       <c r="N7">
-        <v>2.15339841037358</v>
+        <v>6.476309000000001</v>
       </c>
       <c r="O7">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="P7">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="Q7">
-        <v>7.045647688331614</v>
+        <v>7.147529495737555</v>
       </c>
       <c r="R7">
-        <v>7.045647688331614</v>
+        <v>64.32776546163801</v>
       </c>
       <c r="S7">
-        <v>0.01946665371497121</v>
+        <v>0.0171620928655875</v>
       </c>
       <c r="T7">
-        <v>0.01946665371497121</v>
+        <v>0.0171620928655875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.27187372963153</v>
+        <v>3.310927333333333</v>
       </c>
       <c r="H8">
-        <v>3.27187372963153</v>
+        <v>9.932782</v>
       </c>
       <c r="I8">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="J8">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.80955804883442</v>
+        <v>5.106707</v>
       </c>
       <c r="N8">
-        <v>4.80955804883442</v>
+        <v>15.320121</v>
       </c>
       <c r="O8">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="P8">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="Q8">
-        <v>15.73626663111922</v>
+        <v>16.90793578962467</v>
       </c>
       <c r="R8">
-        <v>15.73626663111922</v>
+        <v>152.171422106622</v>
       </c>
       <c r="S8">
-        <v>0.04347825307555124</v>
+        <v>0.04059802262585636</v>
       </c>
       <c r="T8">
-        <v>0.04347825307555124</v>
+        <v>0.04059802262585636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.27187372963153</v>
+        <v>3.310927333333333</v>
       </c>
       <c r="H9">
-        <v>3.27187372963153</v>
+        <v>9.932782</v>
       </c>
       <c r="I9">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="J9">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.15551498818491</v>
+        <v>5.336732333333333</v>
       </c>
       <c r="N9">
-        <v>5.15551498818491</v>
+        <v>16.010197</v>
       </c>
       <c r="O9">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444689</v>
       </c>
       <c r="P9">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444688</v>
       </c>
       <c r="Q9">
-        <v>16.86819405256382</v>
+        <v>17.66953295311711</v>
       </c>
       <c r="R9">
-        <v>16.86819405256382</v>
+        <v>159.025796578054</v>
       </c>
       <c r="S9">
-        <v>0.04660569289634081</v>
+        <v>0.04242671060172551</v>
       </c>
       <c r="T9">
-        <v>0.04660569289634081</v>
+        <v>0.0424267106017255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.27187372963153</v>
+        <v>3.310927333333333</v>
       </c>
       <c r="H10">
-        <v>3.27187372963153</v>
+        <v>9.932782</v>
       </c>
       <c r="I10">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="J10">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.87875142434621</v>
+        <v>4.997999</v>
       </c>
       <c r="N10">
-        <v>4.87875142434621</v>
+        <v>14.993997</v>
       </c>
       <c r="O10">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="P10">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="Q10">
-        <v>15.96265861872077</v>
+        <v>16.54801150107267</v>
       </c>
       <c r="R10">
-        <v>15.96265861872077</v>
+        <v>148.932103509654</v>
       </c>
       <c r="S10">
-        <v>0.04410375900792737</v>
+        <v>0.03973380036998549</v>
       </c>
       <c r="T10">
-        <v>0.04410375900792737</v>
+        <v>0.03973380036998549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.27187372963153</v>
+        <v>3.310927333333333</v>
       </c>
       <c r="H11">
-        <v>3.27187372963153</v>
+        <v>9.932782</v>
       </c>
       <c r="I11">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="J11">
-        <v>0.1742177189636067</v>
+        <v>0.1593010180445361</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.27471593028608</v>
+        <v>2.437803</v>
       </c>
       <c r="N11">
-        <v>2.27471593028608</v>
+        <v>7.313409</v>
       </c>
       <c r="O11">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="P11">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="Q11">
-        <v>7.442583294677373</v>
+        <v>8.071388585982001</v>
       </c>
       <c r="R11">
-        <v>7.442583294677373</v>
+        <v>72.642497273838</v>
       </c>
       <c r="S11">
-        <v>0.02056336026881606</v>
+        <v>0.01938039158138122</v>
       </c>
       <c r="T11">
-        <v>0.02056336026881606</v>
+        <v>0.01938039158138121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.33934261987985</v>
+        <v>1.368841333333333</v>
       </c>
       <c r="H12">
-        <v>1.33934261987985</v>
+        <v>4.106523999999999</v>
       </c>
       <c r="I12">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="J12">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.15339841037358</v>
+        <v>2.158769666666667</v>
       </c>
       <c r="N12">
-        <v>2.15339841037358</v>
+        <v>6.476309000000001</v>
       </c>
       <c r="O12">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="P12">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="Q12">
-        <v>2.884138268594855</v>
+        <v>2.955013148879555</v>
       </c>
       <c r="R12">
-        <v>2.884138268594855</v>
+        <v>26.595118339916</v>
       </c>
       <c r="S12">
-        <v>0.007968681294384664</v>
+        <v>0.007095348135372731</v>
       </c>
       <c r="T12">
-        <v>0.007968681294384664</v>
+        <v>0.007095348135372731</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.33934261987985</v>
+        <v>1.368841333333333</v>
       </c>
       <c r="H13">
-        <v>1.33934261987985</v>
+        <v>4.106523999999999</v>
       </c>
       <c r="I13">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="J13">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.80955804883442</v>
+        <v>5.106707</v>
       </c>
       <c r="N13">
-        <v>4.80955804883442</v>
+        <v>15.320121</v>
       </c>
       <c r="O13">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="P13">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="Q13">
-        <v>6.441646077590112</v>
+        <v>6.990271618822666</v>
       </c>
       <c r="R13">
-        <v>6.441646077590112</v>
+        <v>62.91244456940399</v>
       </c>
       <c r="S13">
-        <v>0.01779783762882741</v>
+        <v>0.01678449746159959</v>
       </c>
       <c r="T13">
-        <v>0.01779783762882741</v>
+        <v>0.01678449746159959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.33934261987985</v>
+        <v>1.368841333333333</v>
       </c>
       <c r="H14">
-        <v>1.33934261987985</v>
+        <v>4.106523999999999</v>
       </c>
       <c r="I14">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="J14">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.15551498818491</v>
+        <v>5.336732333333333</v>
       </c>
       <c r="N14">
-        <v>5.15551498818491</v>
+        <v>16.010197</v>
       </c>
       <c r="O14">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444689</v>
       </c>
       <c r="P14">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444688</v>
       </c>
       <c r="Q14">
-        <v>6.905000951105411</v>
+        <v>7.30513980280311</v>
       </c>
       <c r="R14">
-        <v>6.905000951105411</v>
+        <v>65.74625822522798</v>
       </c>
       <c r="S14">
-        <v>0.01907805617918223</v>
+        <v>0.01754053449748924</v>
       </c>
       <c r="T14">
-        <v>0.01907805617918223</v>
+        <v>0.01754053449748924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.33934261987985</v>
+        <v>1.368841333333333</v>
       </c>
       <c r="H15">
-        <v>1.33934261987985</v>
+        <v>4.106523999999999</v>
       </c>
       <c r="I15">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="J15">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.87875142434621</v>
+        <v>4.997999</v>
       </c>
       <c r="N15">
-        <v>4.87875142434621</v>
+        <v>14.993997</v>
       </c>
       <c r="O15">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="P15">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="Q15">
-        <v>6.534319714426402</v>
+        <v>6.841467615158666</v>
       </c>
       <c r="R15">
-        <v>6.534319714426402</v>
+        <v>61.57320853642799</v>
       </c>
       <c r="S15">
-        <v>0.01805388869419459</v>
+        <v>0.01642720084167298</v>
       </c>
       <c r="T15">
-        <v>0.01805388869419459</v>
+        <v>0.01642720084167298</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.33934261987985</v>
+        <v>1.368841333333333</v>
       </c>
       <c r="H16">
-        <v>1.33934261987985</v>
+        <v>4.106523999999999</v>
       </c>
       <c r="I16">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="J16">
-        <v>0.07131608229040251</v>
+        <v>0.0658600434223081</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.27471593028608</v>
+        <v>2.437803</v>
       </c>
       <c r="N16">
-        <v>2.27471593028608</v>
+        <v>7.313409</v>
       </c>
       <c r="O16">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="P16">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="Q16">
-        <v>3.046623993551789</v>
+        <v>3.336965508924</v>
       </c>
       <c r="R16">
-        <v>3.046623993551789</v>
+        <v>30.032689580316</v>
       </c>
       <c r="S16">
-        <v>0.008417618493813618</v>
+        <v>0.008012462486173553</v>
       </c>
       <c r="T16">
-        <v>0.008417618493813618</v>
+        <v>0.008012462486173551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.59660628527717</v>
+        <v>5.403826333333334</v>
       </c>
       <c r="H17">
-        <v>3.59660628527717</v>
+        <v>16.211479</v>
       </c>
       <c r="I17">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="J17">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.15339841037358</v>
+        <v>2.158769666666667</v>
       </c>
       <c r="N17">
-        <v>2.15339841037358</v>
+        <v>6.476309000000001</v>
       </c>
       <c r="O17">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="P17">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="Q17">
-        <v>7.744926257455485</v>
+        <v>11.66561637233456</v>
       </c>
       <c r="R17">
-        <v>7.744926257455485</v>
+        <v>104.990547351011</v>
       </c>
       <c r="S17">
-        <v>0.02139871366993873</v>
+        <v>0.02801057227335922</v>
       </c>
       <c r="T17">
-        <v>0.02139871366993873</v>
+        <v>0.02801057227335922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.59660628527717</v>
+        <v>5.403826333333334</v>
       </c>
       <c r="H18">
-        <v>3.59660628527717</v>
+        <v>16.211479</v>
       </c>
       <c r="I18">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="J18">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.80955804883442</v>
+        <v>5.106707</v>
       </c>
       <c r="N18">
-        <v>4.80955804883442</v>
+        <v>15.320121</v>
       </c>
       <c r="O18">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="P18">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="Q18">
-        <v>17.29808670784328</v>
+        <v>27.59575776321767</v>
       </c>
       <c r="R18">
-        <v>17.29808670784328</v>
+        <v>248.361819868959</v>
       </c>
       <c r="S18">
-        <v>0.04779345757392951</v>
+        <v>0.06626079090838753</v>
       </c>
       <c r="T18">
-        <v>0.04779345757392951</v>
+        <v>0.06626079090838753</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.59660628527717</v>
+        <v>5.403826333333334</v>
       </c>
       <c r="H19">
-        <v>3.59660628527717</v>
+        <v>16.211479</v>
       </c>
       <c r="I19">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="J19">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.15551498818491</v>
+        <v>5.336732333333333</v>
       </c>
       <c r="N19">
-        <v>5.15551498818491</v>
+        <v>16.010197</v>
       </c>
       <c r="O19">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444689</v>
       </c>
       <c r="P19">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444688</v>
       </c>
       <c r="Q19">
-        <v>18.5423576103465</v>
+        <v>28.83877471681811</v>
       </c>
       <c r="R19">
-        <v>18.5423576103465</v>
+        <v>259.548972451363</v>
       </c>
       <c r="S19">
-        <v>0.05123129492517247</v>
+        <v>0.06924542670512153</v>
       </c>
       <c r="T19">
-        <v>0.05123129492517247</v>
+        <v>0.06924542670512152</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.59660628527717</v>
+        <v>5.403826333333334</v>
       </c>
       <c r="H20">
-        <v>3.59660628527717</v>
+        <v>16.211479</v>
       </c>
       <c r="I20">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="J20">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.87875142434621</v>
+        <v>4.997999</v>
       </c>
       <c r="N20">
-        <v>4.87875142434621</v>
+        <v>14.993997</v>
       </c>
       <c r="O20">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="P20">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="Q20">
-        <v>17.54694803710852</v>
+        <v>27.00831861017367</v>
       </c>
       <c r="R20">
-        <v>17.54694803710852</v>
+        <v>243.074867491563</v>
       </c>
       <c r="S20">
-        <v>0.04848104479573696</v>
+        <v>0.06485027762496065</v>
       </c>
       <c r="T20">
-        <v>0.04848104479573696</v>
+        <v>0.06485027762496065</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.59660628527717</v>
+        <v>5.403826333333334</v>
       </c>
       <c r="H21">
-        <v>3.59660628527717</v>
+        <v>16.211479</v>
       </c>
       <c r="I21">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="J21">
-        <v>0.1915087790083282</v>
+        <v>0.259998166546655</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.27471593028608</v>
+        <v>2.437803</v>
       </c>
       <c r="N21">
-        <v>2.27471593028608</v>
+        <v>7.313409</v>
       </c>
       <c r="O21">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="P21">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="Q21">
-        <v>8.181257612087022</v>
+        <v>13.173464046879</v>
       </c>
       <c r="R21">
-        <v>8.181257612087022</v>
+        <v>118.561176421911</v>
       </c>
       <c r="S21">
-        <v>0.02260426804355058</v>
+        <v>0.03163109903482613</v>
       </c>
       <c r="T21">
-        <v>0.02260426804355058</v>
+        <v>0.03163109903482612</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.675185586107629</v>
+        <v>0.7831763333333334</v>
       </c>
       <c r="H22">
-        <v>0.675185586107629</v>
+        <v>2.349529</v>
       </c>
       <c r="I22">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="J22">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.15339841037358</v>
+        <v>2.158769666666667</v>
       </c>
       <c r="N22">
-        <v>2.15339841037358</v>
+        <v>6.476309000000001</v>
       </c>
       <c r="O22">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="P22">
-        <v>0.1117375077045849</v>
+        <v>0.1077337299927955</v>
       </c>
       <c r="Q22">
-        <v>1.453943567831322</v>
+        <v>1.690697312051222</v>
       </c>
       <c r="R22">
-        <v>1.453943567831322</v>
+        <v>15.216275808461</v>
       </c>
       <c r="S22">
-        <v>0.004017148913499572</v>
+        <v>0.004059571113952862</v>
       </c>
       <c r="T22">
-        <v>0.004017148913499572</v>
+        <v>0.004059571113952862</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.675185586107629</v>
+        <v>0.7831763333333334</v>
       </c>
       <c r="H23">
-        <v>0.675185586107629</v>
+        <v>2.349529</v>
       </c>
       <c r="I23">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="J23">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.80955804883442</v>
+        <v>5.106707</v>
       </c>
       <c r="N23">
-        <v>4.80955804883442</v>
+        <v>15.320121</v>
       </c>
       <c r="O23">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="P23">
-        <v>0.2495627501852074</v>
+        <v>0.2548509929453577</v>
       </c>
       <c r="Q23">
-        <v>3.247344270120933</v>
+        <v>3.999452063667667</v>
       </c>
       <c r="R23">
-        <v>3.247344270120933</v>
+        <v>35.995068573009</v>
       </c>
       <c r="S23">
-        <v>0.008972195204201195</v>
+        <v>0.009603173763614834</v>
       </c>
       <c r="T23">
-        <v>0.008972195204201195</v>
+        <v>0.009603173763614834</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.675185586107629</v>
+        <v>0.7831763333333334</v>
       </c>
       <c r="H24">
-        <v>0.675185586107629</v>
+        <v>2.349529</v>
       </c>
       <c r="I24">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="J24">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.15551498818491</v>
+        <v>5.336732333333333</v>
       </c>
       <c r="N24">
-        <v>5.15551498818491</v>
+        <v>16.010197</v>
       </c>
       <c r="O24">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444689</v>
       </c>
       <c r="P24">
-        <v>0.267514080505649</v>
+        <v>0.2663304423444688</v>
       </c>
       <c r="Q24">
-        <v>3.480929408984295</v>
+        <v>4.179602460801444</v>
       </c>
       <c r="R24">
-        <v>3.480929408984295</v>
+        <v>37.61642214721299</v>
       </c>
       <c r="S24">
-        <v>0.009617575332808404</v>
+        <v>0.01003573690969575</v>
       </c>
       <c r="T24">
-        <v>0.009617575332808404</v>
+        <v>0.01003573690969574</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.675185586107629</v>
+        <v>0.7831763333333334</v>
       </c>
       <c r="H25">
-        <v>0.675185586107629</v>
+        <v>2.349529</v>
       </c>
       <c r="I25">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="J25">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.87875142434621</v>
+        <v>4.997999</v>
       </c>
       <c r="N25">
-        <v>4.87875142434621</v>
+        <v>14.993997</v>
       </c>
       <c r="O25">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="P25">
-        <v>0.2531531193858671</v>
+        <v>0.2494259035989151</v>
       </c>
       <c r="Q25">
-        <v>3.294062639920626</v>
+        <v>3.914314530823667</v>
       </c>
       <c r="R25">
-        <v>3.294062639920626</v>
+        <v>35.228830777413</v>
       </c>
       <c r="S25">
-        <v>0.00910127493785361</v>
+        <v>0.009398748130130273</v>
       </c>
       <c r="T25">
-        <v>0.00910127493785361</v>
+        <v>0.009398748130130271</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.675185586107629</v>
+        <v>0.7831763333333334</v>
       </c>
       <c r="H26">
-        <v>0.675185586107629</v>
+        <v>2.349529</v>
       </c>
       <c r="I26">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="J26">
-        <v>0.03595166024393737</v>
+        <v>0.03768152382939249</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.27471593028608</v>
+        <v>2.437803</v>
       </c>
       <c r="N26">
-        <v>2.27471593028608</v>
+        <v>7.313409</v>
       </c>
       <c r="O26">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="P26">
-        <v>0.1180325422186916</v>
+        <v>0.1216589311184628</v>
       </c>
       <c r="Q26">
-        <v>1.535855408618568</v>
+        <v>1.909229614929</v>
       </c>
       <c r="R26">
-        <v>1.535855408618568</v>
+        <v>17.183066534361</v>
       </c>
       <c r="S26">
-        <v>0.004243465855574594</v>
+        <v>0.004584293911998777</v>
       </c>
       <c r="T26">
-        <v>0.004243465855574594</v>
+        <v>0.004584293911998776</v>
       </c>
     </row>
   </sheetData>
